--- a/Desarrollo/SGPI/0 Gestion de proyectos/SGPI_SB.xlsx
+++ b/Desarrollo/SGPI/0 Gestion de proyectos/SGPI_SB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Escritorio\Maestrias\MII\CICLO 04\Gestion de la confirguracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\maestria\ciclo IV\gestion configuracion\Repositorio\GCS-JWD\Desarrollo\SGPI\0 Gestion de proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FE7A9686-FC2D-429A-8899-9BA98B87B802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405AE7D4-2B54-4144-877F-EF5A83271B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="2640" yWindow="3264" windowWidth="20124" windowHeight="10968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Untitled query" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -80,12 +80,18 @@
   </si>
   <si>
     <t>Planificar el Lanzamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGPI\Inicio </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -919,16 +925,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD28"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>73</v>
       </c>
@@ -971,7 +977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>74</v>
       </c>
@@ -988,7 +994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>75</v>
       </c>
@@ -1008,7 +1014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>76</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>77</v>
       </c>
@@ -1042,7 +1048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>78</v>
       </c>
@@ -1059,12 +1065,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1073,7 +1079,7 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
